--- a/config/excel/Quest.xlsx
+++ b/config/excel/Quest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -46,6 +46,9 @@
     <t>任务目标1参数2</t>
   </si>
   <si>
+    <t>任务目标1计数</t>
+  </si>
+  <si>
     <t>任务目标类型2</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>任务目标2参数2</t>
   </si>
   <si>
+    <t>任务目标2计数</t>
+  </si>
+  <si>
     <t>任务目标类型3</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>任务目标3参数2</t>
   </si>
   <si>
+    <t>任务目标3计数</t>
+  </si>
+  <si>
     <t>任务目标类型列表</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
   </si>
   <si>
     <t>任务目标参数2</t>
+  </si>
+  <si>
+    <t>任务目标计数</t>
   </si>
   <si>
     <t>任务奖励id</t>
@@ -128,6 +140,9 @@
     <t>objParams2</t>
   </si>
   <si>
+    <t>objCount</t>
+  </si>
+  <si>
     <t>rewardLootId</t>
   </si>
   <si>
@@ -159,6 +174,9 @@
   </si>
   <si>
     <t>主线任务1</t>
+  </si>
+  <si>
+    <t>获得英雄2</t>
   </si>
 </sst>
 </file>
@@ -589,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -718,6 +736,19 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -841,7 +872,7 @@
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,7 +905,7 @@
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,19 +923,19 @@
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,7 +971,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,13 +989,13 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,11 +1004,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,7 +1067,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,16 +1082,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,9 +1171,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:T7" totalsRowShown="0">
-  <autoFilter ref="C1:T7"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:X7" totalsRowShown="0">
+  <autoFilter ref="C1:X7"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="任务id"/>
     <tableColumn id="2" name="任务类型"/>
     <tableColumn id="3" name="刷新方式"/>
@@ -1130,16 +1182,20 @@
     <tableColumn id="6" name="任务目标类型1"/>
     <tableColumn id="7" name="任务目标1参数"/>
     <tableColumn id="8" name="任务目标1参数2"/>
-    <tableColumn id="9" name="任务目标类型2"/>
-    <tableColumn id="10" name="任务目标2参数"/>
-    <tableColumn id="11" name="任务目标2参数2"/>
-    <tableColumn id="12" name="任务目标类型3"/>
-    <tableColumn id="13" name="任务目标3参数"/>
-    <tableColumn id="14" name="任务目标3参数2"/>
-    <tableColumn id="15" name="任务目标类型列表"/>
-    <tableColumn id="16" name="任务目标参数1"/>
-    <tableColumn id="17" name="任务目标参数2"/>
-    <tableColumn id="18" name="任务奖励id"/>
+    <tableColumn id="9" name="任务目标1计数"/>
+    <tableColumn id="10" name="任务目标类型2"/>
+    <tableColumn id="11" name="任务目标2参数"/>
+    <tableColumn id="12" name="任务目标2参数2"/>
+    <tableColumn id="13" name="任务目标2计数"/>
+    <tableColumn id="14" name="任务目标类型3"/>
+    <tableColumn id="15" name="任务目标3参数"/>
+    <tableColumn id="16" name="任务目标3参数2"/>
+    <tableColumn id="17" name="任务目标3计数"/>
+    <tableColumn id="18" name="任务目标类型列表"/>
+    <tableColumn id="19" name="任务目标参数1"/>
+    <tableColumn id="20" name="任务目标参数2"/>
+    <tableColumn id="21" name="任务目标计数"/>
+    <tableColumn id="22" name="任务奖励id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1403,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
@@ -1416,22 +1472,22 @@
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" style="1" customWidth="1"/>
-    <col min="14" max="16" width="15.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="15.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="16.25" style="1" customWidth="1"/>
+    <col min="16" max="19" width="15.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="15.75" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1462,25 +1518,25 @@
       <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="19" t="s">
@@ -1492,90 +1548,114 @@
       <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" ht="75" spans="1:20">
+    <row r="2" ht="75" spans="1:24">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="21"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:24">
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>34</v>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:24">
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
@@ -1598,104 +1678,128 @@
       <c r="J4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="25" t="s">
+      <c r="P4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="22" t="s">
+      <c r="R4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="31" t="s">
         <v>19</v>
       </c>
+      <c r="U4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:24">
       <c r="B5" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:24">
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="22"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" ht="16.8" spans="2:20">
+    <row r="7" ht="16.8" spans="2:24">
       <c r="B7" s="9"/>
       <c r="C7" s="7">
         <v>1</v>
@@ -1707,51 +1811,64 @@
         <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H7" s="18">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="27">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="28">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23">
+      <c r="P7" s="18">
         <v>-1</v>
       </c>
-      <c r="K7" s="18">
-        <v>2</v>
-      </c>
-      <c r="L7" s="14">
-        <v>5</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="Q7" s="14">
         <v>-1</v>
       </c>
-      <c r="N7" s="18">
+      <c r="R7" s="27">
         <v>-1</v>
       </c>
-      <c r="O7" s="14">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="26" t="str">
-        <f t="shared" ref="Q7:S7" si="0">H7&amp;","&amp;K7&amp;","&amp;N7</f>
-        <v>0,2,-1</v>
-      </c>
-      <c r="R7" s="26" t="str">
+      <c r="S7" s="32">
+        <v>0</v>
+      </c>
+      <c r="T7" s="33" t="str">
+        <f t="shared" ref="T7:W7" si="0">H7&amp;","&amp;L7&amp;","&amp;P7</f>
+        <v>4,-1,-1</v>
+      </c>
+      <c r="U7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>1,5,-1</v>
-      </c>
-      <c r="S7" s="26" t="str">
+        <v>2,-1,-1</v>
+      </c>
+      <c r="V7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1</v>
       </c>
-      <c r="T7" s="23">
+      <c r="W7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>1,0,0</v>
+      </c>
+      <c r="X7" s="27">
         <v>1</v>
       </c>
     </row>

--- a/config/excel/Quest.xlsx
+++ b/config/excel/Quest.xlsx
@@ -94,7 +94,8 @@
     <t>0:主线任务
 1:日常任务
 2:周常任务
-3:活动任务</t>
+3:活动任务
+4:收集品激活任务</t>
   </si>
   <si>
     <t>0:不刷新
@@ -185,11 +186,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +200,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -233,6 +227,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -254,11 +255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,29 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -300,68 +278,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +316,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -434,13 +428,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,157 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,8 +760,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +814,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,50 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -863,152 +857,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,10 +1058,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,9 +1079,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,16 +1088,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,8 +1449,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
@@ -1470,7 +1458,7 @@
     <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
@@ -1588,17 +1576,17 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="21"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30" t="s">
+      <c r="S2" s="28"/>
+      <c r="T2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>28</v>
       </c>
       <c r="X2" s="21"/>
@@ -1678,7 +1666,7 @@
       <c r="J4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -1690,7 +1678,7 @@
       <c r="N4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -1705,7 +1693,7 @@
       <c r="S4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="24" t="s">
         <v>19</v>
       </c>
       <c r="U4" s="24" t="s">
@@ -1822,10 +1810,10 @@
       <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>-1</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>1</v>
       </c>
       <c r="L7" s="18">
@@ -1834,10 +1822,10 @@
       <c r="M7" s="14">
         <v>-1</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <v>-1</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="27">
         <v>0</v>
       </c>
       <c r="P7" s="18">
@@ -1846,29 +1834,29 @@
       <c r="Q7" s="14">
         <v>-1</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="26">
         <v>-1</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="30">
         <v>0</v>
       </c>
-      <c r="T7" s="33" t="str">
+      <c r="T7" s="31" t="str">
         <f t="shared" ref="T7:W7" si="0">H7&amp;","&amp;L7&amp;","&amp;P7</f>
         <v>4,-1,-1</v>
       </c>
-      <c r="U7" s="33" t="str">
+      <c r="U7" s="31" t="str">
         <f t="shared" si="0"/>
         <v>2,-1,-1</v>
       </c>
-      <c r="V7" s="33" t="str">
+      <c r="V7" s="31" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1</v>
       </c>
-      <c r="W7" s="33" t="str">
+      <c r="W7" s="31" t="str">
         <f t="shared" si="0"/>
         <v>1,0,0</v>
       </c>
-      <c r="X7" s="27">
+      <c r="X7" s="26">
         <v>1</v>
       </c>
     </row>
